--- a/output/ValueSet-icf-d-codes.xlsx
+++ b/output/ValueSet-icf-d-codes.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-25T15:37:55+02:00</t>
+    <t>2022-10-26T12:16:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
